--- a/configuration.xlsx
+++ b/configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/git/constraint_solver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2718452F-36A2-4C4C-BF79-19B92135497F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F10C5AE1-0E79-DA49-A85D-122202BB54F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20520" yWindow="600" windowWidth="20340" windowHeight="23140" xr2:uid="{042D1B1B-8753-074D-AFC0-877EF60E581F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Alida</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Iris</t>
-  </si>
-  <si>
-    <t>Julien</t>
   </si>
   <si>
     <t>Lun. Matin</t>
@@ -586,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6B7B8F-C972-4542-BB7A-E3091429DEE7}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -602,7 +599,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -624,20 +621,20 @@
       <c r="C2" s="10"/>
       <c r="D2" s="11"/>
       <c r="E2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -650,23 +647,23 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12">
-        <f>SUM(B11:B20) - SUM(E6:N6)</f>
-        <v>0</v>
+        <f>SUM(B11:B19) - SUM(E6:N6)</f>
+        <v>2</v>
       </c>
       <c r="I3" s="12">
-        <f>SUM(C11:C20) - SUM(E7:N7)</f>
+        <f>SUM(C11:C19) - SUM(E7:N7)</f>
         <v>2</v>
       </c>
       <c r="J3" s="12">
-        <f>SUM(D11:D20 )- SUM(E8:N8)</f>
-        <v>2</v>
+        <f>SUM(D11:D19 )- SUM(E8:N8)</f>
+        <v>1</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -675,7 +672,7 @@
     </row>
     <row r="4" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -697,39 +694,39 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -767,7 +764,7 @@
     </row>
     <row r="7" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -805,7 +802,7 @@
     </row>
     <row r="8" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -843,7 +840,7 @@
     </row>
     <row r="9" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -861,46 +858,46 @@
     </row>
     <row r="10" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -908,20 +905,16 @@
         <v>0</v>
       </c>
       <c r="B11" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -939,21 +932,21 @@
         <v>2</v>
       </c>
       <c r="C12" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -964,25 +957,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -994,7 +981,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="13">
         <v>2</v>
@@ -1030,15 +1017,15 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -1052,15 +1039,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1075,18 +1060,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1104,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1141,30 +1124,6 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="13">
-        <v>2</v>
-      </c>
-      <c r="C20" s="13">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A4:N4"/>
@@ -1174,6 +1133,18 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A1:N1"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3:J3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>